--- a/sict/day2/test.xlsx
+++ b/sict/day2/test.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
+    <x:t>“젠장”…영부인이 내놓은 음식에 바이든 ‘버럭’, 무슨 요리길래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘어린이 입맛’에 영부인과 ‘음식전쟁중’ 미국 현직 대통령으로는 역대 최고령인 조 …</x:t>
+  </x:si>
+  <x:si>
     <x:t>'투자의 귀재' 버핏의 경고..."쉽게 돈 버는 시대 끝났다"</x:t>
   </x:si>
   <x:si>
@@ -38,12 +44,6 @@
   </x:si>
   <x:si>
     <x:t>기사내용 요약 우크라 측 "8월까지 징집 계획" 주장 러시아가 우크라이나 점령지 …</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웃음소리가 비명으로...러 놀이기구서 어린이 수십명 곤두박질</x:t>
-  </x:si>
-  <x:si>
-    <x:t>러시아의 한 놀이공원에서 놀이기구가 붕괴해 탑승객들이 추락하는 사고가 발생했다. …</x:t>
   </x:si>
 </x:sst>
 </file>
